--- a/medicine/Enfance/Pédagogue_de_l'enfance_en_Allemagne/Pédagogue_de_l'enfance_en_Allemagne.xlsx
+++ b/medicine/Enfance/Pédagogue_de_l'enfance_en_Allemagne/Pédagogue_de_l'enfance_en_Allemagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9dagogue_de_l%27enfance_en_Allemagne</t>
+          <t>Pédagogue_de_l'enfance_en_Allemagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pédagogues de l'enfance en Allemagne sont des professionnels de la pédagogie qui ont terminé une étude de premier cycle sur la pédagogie de l'enfance, l'éducation de la petite enfance, l'éducation élémentaire.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9dagogue_de_l%27enfance_en_Allemagne</t>
+          <t>Pédagogue_de_l'enfance_en_Allemagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les études axées sur la pratique ont lieu dans les universités des sciences appliquées[réf. nécessaire] ou, dans le Bade-Wurtemberg, dans les universités pédagogiques. La formation se termine au bout de six à sept semestres avec un Bachelor of Arts. Des cours à temps partiel sont également proposés, par exemple pour la qualification académique pour la profession d'éducateurs. Il existe également des possibilités d'études au sein de programmes d'études doubles [1] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les études axées sur la pratique ont lieu dans les universités des sciences appliquées[réf. nécessaire] ou, dans le Bade-Wurtemberg, dans les universités pédagogiques. La formation se termine au bout de six à sept semestres avec un Bachelor of Arts. Des cours à temps partiel sont également proposés, par exemple pour la qualification académique pour la profession d'éducateurs. Il existe également des possibilités d'études au sein de programmes d'études doubles  
 Compte tenu de la nouvelle importance éducative et sociopolitique de l'éducation de la petite enfance, l'ancien enseignement professionnel pour les services à l'enfance et à la jeunesse a depuis été complété en Allemagne par un enseignement supérieur spécialisé dans l'éducation de la petite enfance. En coopération avec plusieurs établissements d'enseignement supérieur proposant des programmes de licence et de master, des cours de puériculture et de pédagogie, des contenus pédagogiques et des méthodes pédagogiques pour la professionnalisation des éducateurs de la petite enfance se développent au-delà des frontières des universités.  
 Le contenu de base de l'étude est : 
 éducation
 Psychologie du développement, psychologie de l'enfant
 Didactique élémentaire (présentations complètes sur un apprentissage spécifique à l'âge préscolaire)
-Conditions anthropologiques ou bases[2]
+Conditions anthropologiques ou bases
 Théorie et pratique de l'approche contraignante
 Enfant en bas âge et parent observant
 Méthodes d'évaluation du développement de l'enfant
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9dagogue_de_l%27enfance_en_Allemagne</t>
+          <t>Pédagogue_de_l'enfance_en_Allemagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Options de carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les domaines professionnels dans lesquels travaillent les éducateurs de l'enfance sont aussi les domaines traditionnels où travaillent les éducateurs tels que les crèches, jardins d'enfants, garderies scolaires, jardins d'intégration, instituts pour handicapés, les institutions de protection de la jeunesse, les maisons et les centres de jeunes enfants. 
 Le diplôme est également qualifié pour les fonctions de gestion et de conseil spécialisé, pour le conseil pédagogique et la recherche ou pour la conception. Après avoir terminé le baccalauréat, un programme de maîtrise axé sur la recherche peut être mené. 
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9dagogue_de_l%27enfance_en_Allemagne</t>
+          <t>Pédagogue_de_l'enfance_en_Allemagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le travail au niveau élémentaire était, à la différence du niveau primaire, plutôt déterminé par les tâches d'éducation et de soins. 
 Jusqu'à présent, l'Allemagne a eu une part académique dans les structures de garde d'enfants, qui se situe dans les chiffres uniques dans tous les États fédéraux.   Jusqu'à présent, les employés universitaires  étaient principalement des travailleurs sociaux, qui occupaient souvent le leadership lorsqu'ils étaient employés dans ce domaine professionnel plutôt « atypique ». 
@@ -601,9 +619,9 @@
 Les éducateurs devraient le faire, mais étaient à peine formés. 
 Le processus de Bologne, qui s'est déroulé à la même époque, a permis l'introduction de programmes d'enseignement supérieur adaptés à l’enseignement élémentaire afin de promouvoir la professionnalisation et l’acquisition de connaissances tant attendues.  
 On espérait que l'académisation s'accompagnerait également d'un plus grand professionnalisme. On espérait également que de nouveaux groupes cibles seraient en mesure de se développer, qui seraient intéressés à travailler avec les enfants du secteur élémentaire, mais souhaitant suivre un cours universitaire, éventuellement en spéculant sur un salaire plus élevé.  
-En 2004, les premiers cours spécialisés en Allemagne ont été créés[3]. Cela devrait s'accompagner d'une qualification plus élevée du personnel pédagogique spécialisé et d'une mise à niveau des activités. 
+En 2004, les premiers cours spécialisés en Allemagne ont été créés. Cela devrait s'accompagner d'une qualification plus élevée du personnel pédagogique spécialisé et d'une mise à niveau des activités. 
 Ces programmes ont reçu des noms tels que éducation préscolaire, éducation élémentaire, éducation de la petite enfance, éducation familiale et élémentaire, éducation élémentaire et primaire, pédagogie et recherche sur l'enfance ou Pédagogie de l'enfance.  
-L'Association fédérale pour l'éducation et la formation à l'enfance a décidé en 2009 d'utiliser le terme éducateur de l'enfance agréé par l'État pour les diplômés de ces cours. En 2011, la Conférence des ministres de la jeunesse et de la famille a recommandé aux écoles supérieures d'utiliser ce titre [3] , qui est désormais établi. 
+L'Association fédérale pour l'éducation et la formation à l'enfance a décidé en 2009 d'utiliser le terme éducateur de l'enfance agréé par l'État pour les diplômés de ces cours. En 2011, la Conférence des ministres de la jeunesse et de la famille a recommandé aux écoles supérieures d'utiliser ce titre  , qui est désormais établi. 
 En 2010, la journée d’étude Pédagogie de l'enfance a été créée à Cologne sous l’égide du Département du travail social (FBTS) et de la Journée des professeurs de la Faculté d’éducation (EWFT), qui représente les intérêts de la politique d’enseignement supérieur dans les programmes d’éducation de la jeunesse. 
 </t>
         </is>
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9dagogue_de_l%27enfance_en_Allemagne</t>
+          <t>Pédagogue_de_l'enfance_en_Allemagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,10 +651,12 @@
           <t>Revenu</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À ce jour (octobre 2013), il n'y a pas de classement tarifaire fixe pour le secteur public et les éducateurs de la petite enfance sont regroupés en fonction de leur activité. 
-Cela signifie que les éducateurs de la petite enfance occupant des postes de direction de groupe reçoivent le même classement que les éducateurs (généralement les groupes de salaires S6 ou S8). En règle générale, les employés universitaires de la fonction publique sont classés dans la 9e année de paye [4]. 
+Cela signifie que les éducateurs de la petite enfance occupant des postes de direction de groupe reçoivent le même classement que les éducateurs (généralement les groupes de salaires S6 ou S8). En règle générale, les employés universitaires de la fonction publique sont classés dans la 9e année de paye . 
 </t>
         </is>
       </c>
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P%C3%A9dagogue_de_l%27enfance_en_Allemagne</t>
+          <t>Pédagogue_de_l'enfance_en_Allemagne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,9 +685,11 @@
           <t>Emploi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 1er mars 2013, 1 664 éducateurs de la petite enfance ont été formés, dont 110 hommes, travaillaient dans des crèches allemandes pour enfants[5]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 1er mars 2013, 1 664 éducateurs de la petite enfance ont été formés, dont 110 hommes, travaillaient dans des crèches allemandes pour enfants. 
 </t>
         </is>
       </c>
